--- a/valores.xlsx
+++ b/valores.xlsx
@@ -9,11 +9,12 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7620" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7620" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
     <sheet name="Planilha2" sheetId="2" r:id="rId2"/>
+    <sheet name="Planilha3" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Planilha1!$A$1:$M$99</definedName>
@@ -28,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="613" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="694" uniqueCount="122">
   <si>
     <t>TABLE_SCHEM</t>
   </si>
@@ -343,6 +344,57 @@
   </si>
   <si>
     <t>special_retirement_type</t>
+  </si>
+  <si>
+    <t>table_cat</t>
+  </si>
+  <si>
+    <t>table_schem</t>
+  </si>
+  <si>
+    <t>table_name</t>
+  </si>
+  <si>
+    <t>column_name</t>
+  </si>
+  <si>
+    <t>key_seq</t>
+  </si>
+  <si>
+    <t>pk_name</t>
+  </si>
+  <si>
+    <t>null</t>
+  </si>
+  <si>
+    <t>employee_pkey</t>
+  </si>
+  <si>
+    <t>error_pkey</t>
+  </si>
+  <si>
+    <t>execution_pkey</t>
+  </si>
+  <si>
+    <t>frequency_pkey</t>
+  </si>
+  <si>
+    <t>roles_pkey</t>
+  </si>
+  <si>
+    <t>script_pkey</t>
+  </si>
+  <si>
+    <t>system_pkey</t>
+  </si>
+  <si>
+    <t>task_pkey</t>
+  </si>
+  <si>
+    <t>user_roles_pkey</t>
+  </si>
+  <si>
+    <t>users_pkey</t>
   </si>
 </sst>
 </file>
@@ -4759,7 +4811,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B1" sqref="B1:B12"/>
     </sheetView>
   </sheetViews>
@@ -4880,4 +4932,346 @@
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F16"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H8" sqref="H8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>105</v>
+      </c>
+      <c r="B1" t="s">
+        <v>106</v>
+      </c>
+      <c r="C1" t="s">
+        <v>107</v>
+      </c>
+      <c r="D1" t="s">
+        <v>108</v>
+      </c>
+      <c r="E1" t="s">
+        <v>109</v>
+      </c>
+      <c r="F1" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>111</v>
+      </c>
+      <c r="B2" t="s">
+        <v>53</v>
+      </c>
+      <c r="C2" t="s">
+        <v>54</v>
+      </c>
+      <c r="D2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E2">
+        <v>1</v>
+      </c>
+      <c r="F2" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>111</v>
+      </c>
+      <c r="B3" t="s">
+        <v>53</v>
+      </c>
+      <c r="C3" t="s">
+        <v>64</v>
+      </c>
+      <c r="D3" t="s">
+        <v>65</v>
+      </c>
+      <c r="E3">
+        <v>1</v>
+      </c>
+      <c r="F3" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>111</v>
+      </c>
+      <c r="B4" t="s">
+        <v>53</v>
+      </c>
+      <c r="C4" t="s">
+        <v>64</v>
+      </c>
+      <c r="D4" t="s">
+        <v>66</v>
+      </c>
+      <c r="E4">
+        <v>2</v>
+      </c>
+      <c r="F4" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>111</v>
+      </c>
+      <c r="B5" t="s">
+        <v>53</v>
+      </c>
+      <c r="C5" t="s">
+        <v>64</v>
+      </c>
+      <c r="D5" t="s">
+        <v>42</v>
+      </c>
+      <c r="E5">
+        <v>3</v>
+      </c>
+      <c r="F5" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>111</v>
+      </c>
+      <c r="B6" t="s">
+        <v>53</v>
+      </c>
+      <c r="C6" t="s">
+        <v>68</v>
+      </c>
+      <c r="D6" t="s">
+        <v>65</v>
+      </c>
+      <c r="E6">
+        <v>1</v>
+      </c>
+      <c r="F6" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>111</v>
+      </c>
+      <c r="B7" t="s">
+        <v>53</v>
+      </c>
+      <c r="C7" t="s">
+        <v>68</v>
+      </c>
+      <c r="D7" t="s">
+        <v>66</v>
+      </c>
+      <c r="E7">
+        <v>2</v>
+      </c>
+      <c r="F7" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>111</v>
+      </c>
+      <c r="B8" t="s">
+        <v>53</v>
+      </c>
+      <c r="C8" t="s">
+        <v>68</v>
+      </c>
+      <c r="D8" t="s">
+        <v>42</v>
+      </c>
+      <c r="E8">
+        <v>3</v>
+      </c>
+      <c r="F8" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>111</v>
+      </c>
+      <c r="B9" t="s">
+        <v>53</v>
+      </c>
+      <c r="C9" t="s">
+        <v>71</v>
+      </c>
+      <c r="D9" t="s">
+        <v>15</v>
+      </c>
+      <c r="E9">
+        <v>1</v>
+      </c>
+      <c r="F9" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>111</v>
+      </c>
+      <c r="B10" t="s">
+        <v>53</v>
+      </c>
+      <c r="C10" t="s">
+        <v>73</v>
+      </c>
+      <c r="D10" t="s">
+        <v>15</v>
+      </c>
+      <c r="E10">
+        <v>1</v>
+      </c>
+      <c r="F10" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>111</v>
+      </c>
+      <c r="B11" t="s">
+        <v>53</v>
+      </c>
+      <c r="C11" t="s">
+        <v>42</v>
+      </c>
+      <c r="D11" t="s">
+        <v>15</v>
+      </c>
+      <c r="E11">
+        <v>1</v>
+      </c>
+      <c r="F11" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>111</v>
+      </c>
+      <c r="B12" t="s">
+        <v>53</v>
+      </c>
+      <c r="C12" t="s">
+        <v>80</v>
+      </c>
+      <c r="D12" t="s">
+        <v>15</v>
+      </c>
+      <c r="E12">
+        <v>1</v>
+      </c>
+      <c r="F12" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>111</v>
+      </c>
+      <c r="B13" t="s">
+        <v>53</v>
+      </c>
+      <c r="C13" t="s">
+        <v>82</v>
+      </c>
+      <c r="D13" t="s">
+        <v>15</v>
+      </c>
+      <c r="E13">
+        <v>1</v>
+      </c>
+      <c r="F13" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>111</v>
+      </c>
+      <c r="B14" t="s">
+        <v>53</v>
+      </c>
+      <c r="C14" t="s">
+        <v>84</v>
+      </c>
+      <c r="D14" t="s">
+        <v>85</v>
+      </c>
+      <c r="E14">
+        <v>1</v>
+      </c>
+      <c r="F14" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>111</v>
+      </c>
+      <c r="B15" t="s">
+        <v>53</v>
+      </c>
+      <c r="C15" t="s">
+        <v>84</v>
+      </c>
+      <c r="D15" t="s">
+        <v>86</v>
+      </c>
+      <c r="E15">
+        <v>2</v>
+      </c>
+      <c r="F15" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>111</v>
+      </c>
+      <c r="B16" t="s">
+        <v>53</v>
+      </c>
+      <c r="C16" t="s">
+        <v>87</v>
+      </c>
+      <c r="D16" t="s">
+        <v>15</v>
+      </c>
+      <c r="E16">
+        <v>1</v>
+      </c>
+      <c r="F16" t="s">
+        <v>121</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+</worksheet>
 </file>
--- a/valores.xlsx
+++ b/valores.xlsx
@@ -1,25 +1,27 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21601"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ingma\Documents\GitHub\tcc_II\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7CC82C42-7577-4390-987A-45F73D388B5D}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7620" activeTab="2"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
     <sheet name="Planilha2" sheetId="2" r:id="rId2"/>
     <sheet name="Planilha3" sheetId="3" r:id="rId3"/>
+    <sheet name="Planilha4" sheetId="4" r:id="rId4"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Planilha1!$A$1:$M$99</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -29,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="694" uniqueCount="122">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="768" uniqueCount="140">
   <si>
     <t>TABLE_SCHEM</t>
   </si>
@@ -395,12 +397,66 @@
   </si>
   <si>
     <t>users_pkey</t>
+  </si>
+  <si>
+    <t>pktable_cat</t>
+  </si>
+  <si>
+    <t>pktable_schem</t>
+  </si>
+  <si>
+    <t>pktable_name</t>
+  </si>
+  <si>
+    <t>pkcolumn_name</t>
+  </si>
+  <si>
+    <t>fktable_cat</t>
+  </si>
+  <si>
+    <t>fktable_schem</t>
+  </si>
+  <si>
+    <t>fktable_name</t>
+  </si>
+  <si>
+    <t>fkcolumn_name</t>
+  </si>
+  <si>
+    <t>update_rule</t>
+  </si>
+  <si>
+    <t>delete_rule</t>
+  </si>
+  <si>
+    <t>fk_name</t>
+  </si>
+  <si>
+    <t>deferrability</t>
+  </si>
+  <si>
+    <t>fkjh1bwq0agqdfkegshks7166g7</t>
+  </si>
+  <si>
+    <t>fkoirtlpmswtokm3vlge2q25vbd</t>
+  </si>
+  <si>
+    <t>fkfkcb4edv786wttjp40m6g1kt5</t>
+  </si>
+  <si>
+    <t>fkcjycfwg9b2ohlfhgvyc9wxwd6</t>
+  </si>
+  <si>
+    <t>fkh8ciramu9cc9q3qcqiv4ue8a6</t>
+  </si>
+  <si>
+    <t>fkhfh9dx7w3ubf1co1vdev94g3f</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -711,7 +767,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr filterMode="1"/>
   <dimension ref="A1:M99"/>
   <sheetViews>
@@ -4796,7 +4852,7 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:M99">
+  <autoFilter ref="A1:M99" xr:uid="{00000000-0009-0000-0000-000000000000}">
     <filterColumn colId="4">
       <filters>
         <filter val="serial"/>
@@ -4808,7 +4864,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:B12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4935,10 +4991,10 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:F16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
@@ -5274,4 +5330,343 @@
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B49F962E-6329-4943-92DB-CD2B7A9B2C16}">
+  <dimension ref="A1:N7"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D6" sqref="C6:D6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="17.85546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="8.28515625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="29" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="12.140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>122</v>
+      </c>
+      <c r="B1" t="s">
+        <v>123</v>
+      </c>
+      <c r="C1" t="s">
+        <v>124</v>
+      </c>
+      <c r="D1" t="s">
+        <v>125</v>
+      </c>
+      <c r="E1" t="s">
+        <v>126</v>
+      </c>
+      <c r="F1" t="s">
+        <v>127</v>
+      </c>
+      <c r="G1" t="s">
+        <v>128</v>
+      </c>
+      <c r="H1" t="s">
+        <v>129</v>
+      </c>
+      <c r="I1" t="s">
+        <v>109</v>
+      </c>
+      <c r="J1" t="s">
+        <v>130</v>
+      </c>
+      <c r="K1" t="s">
+        <v>131</v>
+      </c>
+      <c r="L1" t="s">
+        <v>132</v>
+      </c>
+      <c r="M1" t="s">
+        <v>110</v>
+      </c>
+      <c r="N1" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>111</v>
+      </c>
+      <c r="B2" t="s">
+        <v>53</v>
+      </c>
+      <c r="C2" t="s">
+        <v>42</v>
+      </c>
+      <c r="D2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E2" t="s">
+        <v>111</v>
+      </c>
+      <c r="F2" t="s">
+        <v>53</v>
+      </c>
+      <c r="G2" t="s">
+        <v>64</v>
+      </c>
+      <c r="H2" t="s">
+        <v>42</v>
+      </c>
+      <c r="I2">
+        <v>1</v>
+      </c>
+      <c r="J2">
+        <v>3</v>
+      </c>
+      <c r="K2">
+        <v>3</v>
+      </c>
+      <c r="L2" t="s">
+        <v>134</v>
+      </c>
+      <c r="M2" t="s">
+        <v>117</v>
+      </c>
+      <c r="N2">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>111</v>
+      </c>
+      <c r="B3" t="s">
+        <v>53</v>
+      </c>
+      <c r="C3" t="s">
+        <v>42</v>
+      </c>
+      <c r="D3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E3" t="s">
+        <v>111</v>
+      </c>
+      <c r="F3" t="s">
+        <v>53</v>
+      </c>
+      <c r="G3" t="s">
+        <v>68</v>
+      </c>
+      <c r="H3" t="s">
+        <v>42</v>
+      </c>
+      <c r="I3">
+        <v>1</v>
+      </c>
+      <c r="J3">
+        <v>3</v>
+      </c>
+      <c r="K3">
+        <v>3</v>
+      </c>
+      <c r="L3" t="s">
+        <v>135</v>
+      </c>
+      <c r="M3" t="s">
+        <v>117</v>
+      </c>
+      <c r="N3">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>111</v>
+      </c>
+      <c r="B4" t="s">
+        <v>53</v>
+      </c>
+      <c r="C4" t="s">
+        <v>71</v>
+      </c>
+      <c r="D4" t="s">
+        <v>15</v>
+      </c>
+      <c r="E4" t="s">
+        <v>111</v>
+      </c>
+      <c r="F4" t="s">
+        <v>53</v>
+      </c>
+      <c r="G4" t="s">
+        <v>42</v>
+      </c>
+      <c r="H4" t="s">
+        <v>71</v>
+      </c>
+      <c r="I4">
+        <v>1</v>
+      </c>
+      <c r="J4">
+        <v>3</v>
+      </c>
+      <c r="K4">
+        <v>3</v>
+      </c>
+      <c r="L4" t="s">
+        <v>136</v>
+      </c>
+      <c r="M4" t="s">
+        <v>115</v>
+      </c>
+      <c r="N4">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>111</v>
+      </c>
+      <c r="B5" t="s">
+        <v>53</v>
+      </c>
+      <c r="C5" t="s">
+        <v>80</v>
+      </c>
+      <c r="D5" t="s">
+        <v>15</v>
+      </c>
+      <c r="E5" t="s">
+        <v>111</v>
+      </c>
+      <c r="F5" t="s">
+        <v>53</v>
+      </c>
+      <c r="G5" t="s">
+        <v>42</v>
+      </c>
+      <c r="H5" t="s">
+        <v>79</v>
+      </c>
+      <c r="I5">
+        <v>1</v>
+      </c>
+      <c r="J5">
+        <v>3</v>
+      </c>
+      <c r="K5">
+        <v>3</v>
+      </c>
+      <c r="L5" t="s">
+        <v>137</v>
+      </c>
+      <c r="M5" t="s">
+        <v>118</v>
+      </c>
+      <c r="N5">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>111</v>
+      </c>
+      <c r="B6" t="s">
+        <v>53</v>
+      </c>
+      <c r="C6" t="s">
+        <v>73</v>
+      </c>
+      <c r="D6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E6" t="s">
+        <v>111</v>
+      </c>
+      <c r="F6" t="s">
+        <v>53</v>
+      </c>
+      <c r="G6" t="s">
+        <v>84</v>
+      </c>
+      <c r="H6" t="s">
+        <v>86</v>
+      </c>
+      <c r="I6">
+        <v>1</v>
+      </c>
+      <c r="J6">
+        <v>3</v>
+      </c>
+      <c r="K6">
+        <v>3</v>
+      </c>
+      <c r="L6" t="s">
+        <v>138</v>
+      </c>
+      <c r="M6" t="s">
+        <v>116</v>
+      </c>
+      <c r="N6">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>111</v>
+      </c>
+      <c r="B7" t="s">
+        <v>53</v>
+      </c>
+      <c r="C7" t="s">
+        <v>87</v>
+      </c>
+      <c r="D7" t="s">
+        <v>15</v>
+      </c>
+      <c r="E7" t="s">
+        <v>111</v>
+      </c>
+      <c r="F7" t="s">
+        <v>53</v>
+      </c>
+      <c r="G7" t="s">
+        <v>84</v>
+      </c>
+      <c r="H7" t="s">
+        <v>85</v>
+      </c>
+      <c r="I7">
+        <v>1</v>
+      </c>
+      <c r="J7">
+        <v>3</v>
+      </c>
+      <c r="K7">
+        <v>3</v>
+      </c>
+      <c r="L7" t="s">
+        <v>139</v>
+      </c>
+      <c r="M7" t="s">
+        <v>121</v>
+      </c>
+      <c r="N7">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+</worksheet>
 </file>
--- a/valores.xlsx
+++ b/valores.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ingma\Documents\GitHub\tcc_II\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7CC82C42-7577-4390-987A-45F73D388B5D}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6464620-DDB1-495E-BF04-8D6E047D7BBA}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,12 +26,17 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+      </xcalcf:calcFeatures>
+    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="768" uniqueCount="140">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="774" uniqueCount="140">
   <si>
     <t>TABLE_SCHEM</t>
   </si>
@@ -5334,335 +5339,354 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B49F962E-6329-4943-92DB-CD2B7A9B2C16}">
-  <dimension ref="A1:N7"/>
+  <dimension ref="A1:O7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D6" sqref="C6:D6"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.85546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.85546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="17.85546875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="15.42578125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="8.28515625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="11.85546875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="11.42578125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="29" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="15.42578125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.42578125" customWidth="1"/>
+    <col min="3" max="3" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="17.85546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="8.28515625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="29" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="12.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B1" t="s">
         <v>122</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>123</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>124</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>125</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>126</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>127</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>128</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>129</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>109</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>130</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>131</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>132</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
         <v>110</v>
       </c>
-      <c r="N1" t="s">
+      <c r="O1" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>64</v>
+      </c>
+      <c r="B2" t="s">
         <v>111</v>
       </c>
-      <c r="B2" t="s">
-        <v>53</v>
-      </c>
       <c r="C2" t="s">
+        <v>53</v>
+      </c>
+      <c r="D2" t="s">
         <v>42</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
         <v>15</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
         <v>111</v>
       </c>
-      <c r="F2" t="s">
-        <v>53</v>
-      </c>
       <c r="G2" t="s">
+        <v>53</v>
+      </c>
+      <c r="H2" t="s">
         <v>64</v>
       </c>
-      <c r="H2" t="s">
+      <c r="I2" t="s">
         <v>42</v>
       </c>
-      <c r="I2">
-        <v>1</v>
-      </c>
       <c r="J2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="K2">
         <v>3</v>
       </c>
-      <c r="L2" t="s">
+      <c r="L2">
+        <v>3</v>
+      </c>
+      <c r="M2" t="s">
         <v>134</v>
       </c>
-      <c r="M2" t="s">
+      <c r="N2" t="s">
         <v>117</v>
       </c>
-      <c r="N2">
+      <c r="O2">
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
+        <v>68</v>
+      </c>
+      <c r="B3" t="s">
         <v>111</v>
       </c>
-      <c r="B3" t="s">
-        <v>53</v>
-      </c>
       <c r="C3" t="s">
+        <v>53</v>
+      </c>
+      <c r="D3" t="s">
         <v>42</v>
       </c>
-      <c r="D3" t="s">
+      <c r="E3" t="s">
         <v>15</v>
       </c>
-      <c r="E3" t="s">
+      <c r="F3" t="s">
         <v>111</v>
       </c>
-      <c r="F3" t="s">
-        <v>53</v>
-      </c>
       <c r="G3" t="s">
+        <v>53</v>
+      </c>
+      <c r="H3" t="s">
         <v>68</v>
       </c>
-      <c r="H3" t="s">
+      <c r="I3" t="s">
         <v>42</v>
       </c>
-      <c r="I3">
-        <v>1</v>
-      </c>
       <c r="J3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="K3">
         <v>3</v>
       </c>
-      <c r="L3" t="s">
+      <c r="L3">
+        <v>3</v>
+      </c>
+      <c r="M3" t="s">
         <v>135</v>
       </c>
-      <c r="M3" t="s">
+      <c r="N3" t="s">
         <v>117</v>
       </c>
-      <c r="N3">
+      <c r="O3">
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
+        <v>42</v>
+      </c>
+      <c r="B4" t="s">
         <v>111</v>
       </c>
-      <c r="B4" t="s">
-        <v>53</v>
-      </c>
       <c r="C4" t="s">
+        <v>53</v>
+      </c>
+      <c r="D4" t="s">
         <v>71</v>
       </c>
-      <c r="D4" t="s">
+      <c r="E4" t="s">
         <v>15</v>
       </c>
-      <c r="E4" t="s">
+      <c r="F4" t="s">
         <v>111</v>
       </c>
-      <c r="F4" t="s">
-        <v>53</v>
-      </c>
       <c r="G4" t="s">
+        <v>53</v>
+      </c>
+      <c r="H4" t="s">
         <v>42</v>
       </c>
-      <c r="H4" t="s">
+      <c r="I4" t="s">
         <v>71</v>
       </c>
-      <c r="I4">
-        <v>1</v>
-      </c>
       <c r="J4">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="K4">
         <v>3</v>
       </c>
-      <c r="L4" t="s">
+      <c r="L4">
+        <v>3</v>
+      </c>
+      <c r="M4" t="s">
         <v>136</v>
       </c>
-      <c r="M4" t="s">
+      <c r="N4" t="s">
         <v>115</v>
       </c>
-      <c r="N4">
+      <c r="O4">
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
+        <v>42</v>
+      </c>
+      <c r="B5" t="s">
         <v>111</v>
       </c>
-      <c r="B5" t="s">
-        <v>53</v>
-      </c>
       <c r="C5" t="s">
+        <v>53</v>
+      </c>
+      <c r="D5" t="s">
         <v>80</v>
       </c>
-      <c r="D5" t="s">
+      <c r="E5" t="s">
         <v>15</v>
       </c>
-      <c r="E5" t="s">
+      <c r="F5" t="s">
         <v>111</v>
       </c>
-      <c r="F5" t="s">
-        <v>53</v>
-      </c>
       <c r="G5" t="s">
+        <v>53</v>
+      </c>
+      <c r="H5" t="s">
         <v>42</v>
       </c>
-      <c r="H5" t="s">
+      <c r="I5" t="s">
         <v>79</v>
       </c>
-      <c r="I5">
-        <v>1</v>
-      </c>
       <c r="J5">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="K5">
         <v>3</v>
       </c>
-      <c r="L5" t="s">
+      <c r="L5">
+        <v>3</v>
+      </c>
+      <c r="M5" t="s">
         <v>137</v>
       </c>
-      <c r="M5" t="s">
+      <c r="N5" t="s">
         <v>118</v>
       </c>
-      <c r="N5">
+      <c r="O5">
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
+        <v>84</v>
+      </c>
+      <c r="B6" t="s">
         <v>111</v>
       </c>
-      <c r="B6" t="s">
-        <v>53</v>
-      </c>
       <c r="C6" t="s">
+        <v>53</v>
+      </c>
+      <c r="D6" t="s">
         <v>73</v>
       </c>
-      <c r="D6" t="s">
+      <c r="E6" t="s">
         <v>15</v>
       </c>
-      <c r="E6" t="s">
+      <c r="F6" t="s">
         <v>111</v>
       </c>
-      <c r="F6" t="s">
-        <v>53</v>
-      </c>
       <c r="G6" t="s">
+        <v>53</v>
+      </c>
+      <c r="H6" t="s">
         <v>84</v>
       </c>
-      <c r="H6" t="s">
+      <c r="I6" t="s">
         <v>86</v>
       </c>
-      <c r="I6">
-        <v>1</v>
-      </c>
       <c r="J6">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="K6">
         <v>3</v>
       </c>
-      <c r="L6" t="s">
+      <c r="L6">
+        <v>3</v>
+      </c>
+      <c r="M6" t="s">
         <v>138</v>
       </c>
-      <c r="M6" t="s">
+      <c r="N6" t="s">
         <v>116</v>
       </c>
-      <c r="N6">
+      <c r="O6">
         <v>7</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
+        <v>84</v>
+      </c>
+      <c r="B7" t="s">
         <v>111</v>
       </c>
-      <c r="B7" t="s">
-        <v>53</v>
-      </c>
       <c r="C7" t="s">
+        <v>53</v>
+      </c>
+      <c r="D7" t="s">
         <v>87</v>
       </c>
-      <c r="D7" t="s">
+      <c r="E7" t="s">
         <v>15</v>
       </c>
-      <c r="E7" t="s">
+      <c r="F7" t="s">
         <v>111</v>
       </c>
-      <c r="F7" t="s">
-        <v>53</v>
-      </c>
       <c r="G7" t="s">
+        <v>53</v>
+      </c>
+      <c r="H7" t="s">
         <v>84</v>
       </c>
-      <c r="H7" t="s">
+      <c r="I7" t="s">
         <v>85</v>
       </c>
-      <c r="I7">
-        <v>1</v>
-      </c>
       <c r="J7">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="K7">
         <v>3</v>
       </c>
-      <c r="L7" t="s">
+      <c r="L7">
+        <v>3</v>
+      </c>
+      <c r="M7" t="s">
         <v>139</v>
       </c>
-      <c r="M7" t="s">
+      <c r="N7" t="s">
         <v>121</v>
       </c>
-      <c r="N7">
+      <c r="O7">
         <v>7</v>
       </c>
     </row>

--- a/valores.xlsx
+++ b/valores.xlsx
@@ -1,22 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21601"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22026"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ingma\Documents\GitHub\tcc_II\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6464620-DDB1-495E-BF04-8D6E047D7BBA}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0BCCA981-ED50-484C-A7B9-5978063C4083}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="20370" yWindow="-120" windowWidth="24240" windowHeight="13740" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
     <sheet name="Planilha2" sheetId="2" r:id="rId2"/>
     <sheet name="Planilha3" sheetId="3" r:id="rId3"/>
     <sheet name="Planilha4" sheetId="4" r:id="rId4"/>
+    <sheet name="Planilha5" sheetId="5" r:id="rId5"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Planilha1!$A$1:$M$99</definedName>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="774" uniqueCount="140">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="822" uniqueCount="165">
   <si>
     <t>TABLE_SCHEM</t>
   </si>
@@ -456,14 +457,97 @@
   </si>
   <si>
     <t>fkhfh9dx7w3ubf1co1vdev94g3f</t>
+  </si>
+  <si>
+    <t>Common databases</t>
+  </si>
+  <si>
+    <t>Cassandra</t>
+  </si>
+  <si>
+    <t>Validations</t>
+  </si>
+  <si>
+    <t>String</t>
+  </si>
+  <si>
+    <t>required, minlength, maxlength, pattern, unique</t>
+  </si>
+  <si>
+    <t>Integer</t>
+  </si>
+  <si>
+    <t>required, min, max, unique</t>
+  </si>
+  <si>
+    <t>Long</t>
+  </si>
+  <si>
+    <t>BigDecimal</t>
+  </si>
+  <si>
+    <t>Float</t>
+  </si>
+  <si>
+    <t>Double</t>
+  </si>
+  <si>
+    <t>Enum</t>
+  </si>
+  <si>
+    <t>required, unique</t>
+  </si>
+  <si>
+    <t>Boolean</t>
+  </si>
+  <si>
+    <t>LocalDate</t>
+  </si>
+  <si>
+    <t>Date</t>
+  </si>
+  <si>
+    <t>ZonedDateTime</t>
+  </si>
+  <si>
+    <t>Duration</t>
+  </si>
+  <si>
+    <t>UUID</t>
+  </si>
+  <si>
+    <t>Blob</t>
+  </si>
+  <si>
+    <t>required, minbytes, maxbytes, unique</t>
+  </si>
+  <si>
+    <t>AnyBlob</t>
+  </si>
+  <si>
+    <t>ImageBlob</t>
+  </si>
+  <si>
+    <t>TextBlob</t>
+  </si>
+  <si>
+    <t>Instant</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -491,8 +575,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -5341,7 +5426,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B49F962E-6329-4943-92DB-CD2B7A9B2C16}">
   <dimension ref="A1:O7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
@@ -5693,4 +5778,207 @@
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7A532C87-D863-4657-97A4-300303D3C1B3}">
+  <dimension ref="A1:C19"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A8" sqref="A8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="18.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="45.28515625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>143</v>
+      </c>
+      <c r="B2" t="s">
+        <v>143</v>
+      </c>
+      <c r="C2" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>145</v>
+      </c>
+      <c r="B3" t="s">
+        <v>145</v>
+      </c>
+      <c r="C3" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>147</v>
+      </c>
+      <c r="B4" t="s">
+        <v>147</v>
+      </c>
+      <c r="C4" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>148</v>
+      </c>
+      <c r="B5" t="s">
+        <v>148</v>
+      </c>
+      <c r="C5" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>149</v>
+      </c>
+      <c r="B6" t="s">
+        <v>149</v>
+      </c>
+      <c r="C6" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>150</v>
+      </c>
+      <c r="B7" t="s">
+        <v>150</v>
+      </c>
+      <c r="C7" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>151</v>
+      </c>
+      <c r="C8" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>153</v>
+      </c>
+      <c r="B9" t="s">
+        <v>153</v>
+      </c>
+      <c r="C9" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>154</v>
+      </c>
+      <c r="C10" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B11" t="s">
+        <v>155</v>
+      </c>
+      <c r="C11" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>156</v>
+      </c>
+      <c r="C12" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>157</v>
+      </c>
+      <c r="C13" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>158</v>
+      </c>
+      <c r="B14" t="s">
+        <v>158</v>
+      </c>
+      <c r="C14" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>159</v>
+      </c>
+      <c r="C15" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>161</v>
+      </c>
+      <c r="C16" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>162</v>
+      </c>
+      <c r="C17" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>163</v>
+      </c>
+      <c r="C18" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>164</v>
+      </c>
+      <c r="B19" t="s">
+        <v>164</v>
+      </c>
+      <c r="C19" t="s">
+        <v>152</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+</worksheet>
 </file>
--- a/valores.xlsx
+++ b/valores.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ingma\Documents\GitHub\tcc_II\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0BCCA981-ED50-484C-A7B9-5978063C4083}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52CD8F8E-1851-415D-B17C-81ADC2F1C9E9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="20370" yWindow="-120" windowWidth="24240" windowHeight="13740" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="20370" yWindow="-120" windowWidth="24240" windowHeight="13740" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
@@ -18,6 +18,8 @@
     <sheet name="Planilha3" sheetId="3" r:id="rId3"/>
     <sheet name="Planilha4" sheetId="4" r:id="rId4"/>
     <sheet name="Planilha5" sheetId="5" r:id="rId5"/>
+    <sheet name="Planilha7" sheetId="7" r:id="rId6"/>
+    <sheet name="Planilha6" sheetId="6" r:id="rId7"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Planilha1!$A$1:$M$99</definedName>
@@ -37,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="822" uniqueCount="165">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="908" uniqueCount="209">
   <si>
     <t>TABLE_SCHEM</t>
   </si>
@@ -532,6 +534,138 @@
   </si>
   <si>
     <t>Instant</t>
+  </si>
+  <si>
+    <t>A Java String. Its default size depends on the underlying backend (if you use JPA, it’s 255 by default), but you can change it using the validation rules (putting a max size of 1024, for example).</t>
+  </si>
+  <si>
+    <t>A Java Integer.</t>
+  </si>
+  <si>
+    <t>A Java Long.</t>
+  </si>
+  <si>
+    <t>A Java Float.</t>
+  </si>
+  <si>
+    <t>A Java Double.</t>
+  </si>
+  <si>
+    <t>A java.math.BigDecimal object, used when you want exact mathematic calculations (often used for financial operations).</t>
+  </si>
+  <si>
+    <t>A java.time.LocalDate object, used to correctly manage dates in Java.</t>
+  </si>
+  <si>
+    <t>A java.time.Instant object, used to represent a timestamp, an instantaneous point on the time-line.</t>
+  </si>
+  <si>
+    <t>A java.time.ZonedDateTime object, used to represent a local date-time in a given timezone (typically a calendar appointment). Note that time zones are neither supported by the REST nor by the persistence layers so you should most probably use Instant instead.</t>
+  </si>
+  <si>
+    <t>A java.time.Duration object, used to represent an amount of time.</t>
+  </si>
+  <si>
+    <t>A java.util.UUID.</t>
+  </si>
+  <si>
+    <t>A Java Boolean.</t>
+  </si>
+  <si>
+    <t>Enumeration</t>
+  </si>
+  <si>
+    <t>A Java Enumeration object. When this type is selected, the sub-generator will ask you what values you want in your enumeration, and it will create a specific enum class to store them.</t>
+  </si>
+  <si>
+    <t>A Blob object, used to store some binary data. When this type is selected, the sub-generator will ask you if you want to store generic binary data, an image object, or a CLOB (long text). Images will be handled specifically on the Angular side, so they can be displayed to the end-user.</t>
+  </si>
+  <si>
+    <t>BIGINT</t>
+  </si>
+  <si>
+    <t>BIGINT_IDENTITY</t>
+  </si>
+  <si>
+    <t>BIGSERIAL</t>
+  </si>
+  <si>
+    <t>BLOB</t>
+  </si>
+  <si>
+    <t>BOOL</t>
+  </si>
+  <si>
+    <t>BPCHAR</t>
+  </si>
+  <si>
+    <t>BYTEA</t>
+  </si>
+  <si>
+    <t>CLOB</t>
+  </si>
+  <si>
+    <t>DATE</t>
+  </si>
+  <si>
+    <t>DATETIME</t>
+  </si>
+  <si>
+    <t>FLOAT8</t>
+  </si>
+  <si>
+    <t>IMAGE</t>
+  </si>
+  <si>
+    <t>INT</t>
+  </si>
+  <si>
+    <t>INT_IDENTITY</t>
+  </si>
+  <si>
+    <t>INT2</t>
+  </si>
+  <si>
+    <t>INT4</t>
+  </si>
+  <si>
+    <t>INT8</t>
+  </si>
+  <si>
+    <t>JSONB</t>
+  </si>
+  <si>
+    <t>NUMBER</t>
+  </si>
+  <si>
+    <t>NUMERIC</t>
+  </si>
+  <si>
+    <t>NVARCHAR</t>
+  </si>
+  <si>
+    <t>SERIAL</t>
+  </si>
+  <si>
+    <t>SMALLINT</t>
+  </si>
+  <si>
+    <t>TEXT</t>
+  </si>
+  <si>
+    <t>TIME</t>
+  </si>
+  <si>
+    <t>TIMESTAMP</t>
+  </si>
+  <si>
+    <t>TIMESTAMPTZ</t>
+  </si>
+  <si>
+    <t>VARCHAR</t>
+  </si>
+  <si>
+    <t>VARCHAR2</t>
   </si>
 </sst>
 </file>
@@ -575,9 +709,18 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -863,12 +1006,12 @@
   <sheetViews>
     <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C90" sqref="C90"/>
+      <selection pane="bottomLeft" activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="24.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="2" width="24.85546875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="23.28515625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="13.28515625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="13.85546875" bestFit="1" customWidth="1"/>
@@ -964,7 +1107,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="3" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>13</v>
       </c>
@@ -1046,7 +1189,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="5" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>13</v>
       </c>
@@ -1169,7 +1312,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="8" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>13</v>
       </c>
@@ -1210,7 +1353,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="9" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>13</v>
       </c>
@@ -1456,7 +1599,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="15" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>13</v>
       </c>
@@ -1538,7 +1681,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="17" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>13</v>
       </c>
@@ -1702,7 +1845,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="21" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>13</v>
       </c>
@@ -1743,7 +1886,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="22" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>13</v>
       </c>
@@ -1784,7 +1927,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="23" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>13</v>
       </c>
@@ -1825,7 +1968,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="24" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>13</v>
       </c>
@@ -1907,7 +2050,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="26" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>13</v>
       </c>
@@ -2112,7 +2255,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="31" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>13</v>
       </c>
@@ -2276,7 +2419,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="35" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>53</v>
       </c>
@@ -2317,7 +2460,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="36" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>53</v>
       </c>
@@ -2399,7 +2542,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="38" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>53</v>
       </c>
@@ -2604,7 +2747,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="43" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>53</v>
       </c>
@@ -2850,7 +2993,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="49" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>53</v>
       </c>
@@ -2891,7 +3034,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="50" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>53</v>
       </c>
@@ -2973,7 +3116,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="52" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>53</v>
       </c>
@@ -3014,7 +3157,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="53" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>53</v>
       </c>
@@ -3055,7 +3198,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="54" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>53</v>
       </c>
@@ -3137,7 +3280,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="56" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>53</v>
       </c>
@@ -3301,7 +3444,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="60" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>53</v>
       </c>
@@ -3342,7 +3485,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="61" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>53</v>
       </c>
@@ -3424,7 +3567,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="63" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>53</v>
       </c>
@@ -3465,7 +3608,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="64" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>53</v>
       </c>
@@ -3629,7 +3772,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="68" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>53</v>
       </c>
@@ -3670,7 +3813,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="69" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>53</v>
       </c>
@@ -3793,7 +3936,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="72" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>90</v>
       </c>
@@ -3834,7 +3977,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="73" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>90</v>
       </c>
@@ -3957,7 +4100,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="76" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>90</v>
       </c>
@@ -4039,7 +4182,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="78" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>90</v>
       </c>
@@ -4080,7 +4223,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="79" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>90</v>
       </c>
@@ -4121,7 +4264,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="80" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>90</v>
       </c>
@@ -4162,7 +4305,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="81" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>90</v>
       </c>
@@ -4326,7 +4469,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="85" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>90</v>
       </c>
@@ -4408,7 +4551,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="87" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>90</v>
       </c>
@@ -4449,7 +4592,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="88" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>90</v>
       </c>
@@ -4490,7 +4633,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="89" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>90</v>
       </c>
@@ -4531,7 +4674,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="90" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>90</v>
       </c>
@@ -4572,7 +4715,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="91" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>90</v>
       </c>
@@ -4654,7 +4797,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="93" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>90</v>
       </c>
@@ -4945,7 +5088,8 @@
   <autoFilter ref="A1:M99" xr:uid="{00000000-0009-0000-0000-000000000000}">
     <filterColumn colId="4">
       <filters>
-        <filter val="serial"/>
+        <filter val="text"/>
+        <filter val="varchar"/>
       </filters>
     </filterColumn>
   </autoFilter>
@@ -5784,9 +5928,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7A532C87-D863-4657-97A4-300303D3C1B3}">
   <dimension ref="A1:C19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A8" sqref="A8"/>
+      <selection pane="bottomLeft" activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5809,21 +5953,18 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>143</v>
-      </c>
-      <c r="B2" t="s">
-        <v>143</v>
+        <v>161</v>
       </c>
       <c r="C2" t="s">
-        <v>144</v>
+        <v>160</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="B3" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="C3" t="s">
         <v>146</v>
@@ -5831,32 +5972,29 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>147</v>
-      </c>
-      <c r="B4" t="s">
-        <v>147</v>
+        <v>159</v>
       </c>
       <c r="C4" t="s">
-        <v>146</v>
+        <v>160</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>148</v>
+        <v>153</v>
       </c>
       <c r="B5" t="s">
-        <v>148</v>
+        <v>153</v>
       </c>
       <c r="C5" t="s">
-        <v>146</v>
+        <v>152</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="B6" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="C6" t="s">
         <v>146</v>
@@ -5864,13 +6002,10 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>150</v>
-      </c>
-      <c r="B7" t="s">
-        <v>150</v>
+        <v>157</v>
       </c>
       <c r="C7" t="s">
-        <v>146</v>
+        <v>152</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
@@ -5883,26 +6018,29 @@
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="B9" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="C9" t="s">
-        <v>152</v>
+        <v>146</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>154</v>
+        <v>162</v>
       </c>
       <c r="C10" t="s">
-        <v>152</v>
+        <v>160</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>164</v>
+      </c>
       <c r="B11" t="s">
-        <v>155</v>
+        <v>164</v>
       </c>
       <c r="C11" t="s">
         <v>152</v>
@@ -5910,15 +6048,18 @@
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>156</v>
+        <v>145</v>
+      </c>
+      <c r="B12" t="s">
+        <v>145</v>
       </c>
       <c r="C12" t="s">
-        <v>152</v>
+        <v>146</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="C13" t="s">
         <v>152</v>
@@ -5926,56 +6067,568 @@
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>158</v>
+        <v>147</v>
       </c>
       <c r="B14" t="s">
-        <v>158</v>
+        <v>147</v>
       </c>
       <c r="C14" t="s">
-        <v>152</v>
+        <v>146</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>159</v>
+        <v>143</v>
+      </c>
+      <c r="B15" t="s">
+        <v>143</v>
       </c>
       <c r="C15" t="s">
-        <v>160</v>
+        <v>144</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="C16" t="s">
-        <v>160</v>
+        <v>152</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>162</v>
+        <v>158</v>
+      </c>
+      <c r="B17" t="s">
+        <v>158</v>
       </c>
       <c r="C17" t="s">
-        <v>160</v>
+        <v>152</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>163</v>
+        <v>156</v>
       </c>
       <c r="C18" t="s">
         <v>152</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>164</v>
-      </c>
       <c r="B19" t="s">
-        <v>164</v>
+        <v>155</v>
       </c>
       <c r="C19" t="s">
         <v>152</v>
+      </c>
+    </row>
+  </sheetData>
+  <sortState ref="A2:C19">
+    <sortCondition ref="A2"/>
+  </sortState>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{23D9075E-4AE1-43DE-9BD1-4482CE60EE6A}">
+  <dimension ref="A1:C30"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="16" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="83" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>180</v>
+      </c>
+      <c r="B1" t="s">
+        <v>147</v>
+      </c>
+      <c r="C1" t="str">
+        <f>CONCATENATE("COLUMN_TYPE_FIELD_TYPES_MAP.put(ColumnType.",A1,", FieldTypes.",UPPER(B1),");")</f>
+        <v>COLUMN_TYPE_FIELD_TYPES_MAP.put(ColumnType.BIGINT, FieldTypes.LONG);</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>181</v>
+      </c>
+      <c r="B2" t="s">
+        <v>147</v>
+      </c>
+      <c r="C2" t="str">
+        <f t="shared" ref="C2:C30" si="0">CONCATENATE("COLUMN_TYPE_FIELD_TYPES_MAP.put(ColumnType.",A2,", FieldTypes.",UPPER(B2),");")</f>
+        <v>COLUMN_TYPE_FIELD_TYPES_MAP.put(ColumnType.BIGINT_IDENTITY, FieldTypes.LONG);</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>182</v>
+      </c>
+      <c r="B3" t="s">
+        <v>147</v>
+      </c>
+      <c r="C3" t="str">
+        <f t="shared" si="0"/>
+        <v>COLUMN_TYPE_FIELD_TYPES_MAP.put(ColumnType.BIGSERIAL, FieldTypes.LONG);</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>183</v>
+      </c>
+      <c r="B4" t="s">
+        <v>159</v>
+      </c>
+      <c r="C4" t="str">
+        <f t="shared" si="0"/>
+        <v>COLUMN_TYPE_FIELD_TYPES_MAP.put(ColumnType.BLOB, FieldTypes.BLOB);</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>184</v>
+      </c>
+      <c r="B5" t="s">
+        <v>153</v>
+      </c>
+      <c r="C5" t="str">
+        <f t="shared" si="0"/>
+        <v>COLUMN_TYPE_FIELD_TYPES_MAP.put(ColumnType.BOOL, FieldTypes.BOOLEAN);</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>185</v>
+      </c>
+      <c r="B6" t="s">
+        <v>143</v>
+      </c>
+      <c r="C6" t="str">
+        <f t="shared" si="0"/>
+        <v>COLUMN_TYPE_FIELD_TYPES_MAP.put(ColumnType.BPCHAR, FieldTypes.STRING);</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>186</v>
+      </c>
+      <c r="B7" t="s">
+        <v>145</v>
+      </c>
+      <c r="C7" t="str">
+        <f t="shared" si="0"/>
+        <v>COLUMN_TYPE_FIELD_TYPES_MAP.put(ColumnType.BYTEA, FieldTypes.INTEGER);</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>187</v>
+      </c>
+      <c r="B8" t="s">
+        <v>163</v>
+      </c>
+      <c r="C8" t="str">
+        <f t="shared" si="0"/>
+        <v>COLUMN_TYPE_FIELD_TYPES_MAP.put(ColumnType.CLOB, FieldTypes.TEXTBLOB);</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>188</v>
+      </c>
+      <c r="B9" t="s">
+        <v>154</v>
+      </c>
+      <c r="C9" t="str">
+        <f t="shared" si="0"/>
+        <v>COLUMN_TYPE_FIELD_TYPES_MAP.put(ColumnType.DATE, FieldTypes.LOCALDATE);</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>189</v>
+      </c>
+      <c r="B10" t="s">
+        <v>154</v>
+      </c>
+      <c r="C10" t="str">
+        <f t="shared" si="0"/>
+        <v>COLUMN_TYPE_FIELD_TYPES_MAP.put(ColumnType.DATETIME, FieldTypes.LOCALDATE);</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>190</v>
+      </c>
+      <c r="B11" t="s">
+        <v>150</v>
+      </c>
+      <c r="C11" t="str">
+        <f t="shared" si="0"/>
+        <v>COLUMN_TYPE_FIELD_TYPES_MAP.put(ColumnType.FLOAT8, FieldTypes.DOUBLE);</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>191</v>
+      </c>
+      <c r="B12" t="s">
+        <v>162</v>
+      </c>
+      <c r="C12" t="str">
+        <f t="shared" si="0"/>
+        <v>COLUMN_TYPE_FIELD_TYPES_MAP.put(ColumnType.IMAGE, FieldTypes.IMAGEBLOB);</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>192</v>
+      </c>
+      <c r="B13" t="s">
+        <v>145</v>
+      </c>
+      <c r="C13" t="str">
+        <f t="shared" si="0"/>
+        <v>COLUMN_TYPE_FIELD_TYPES_MAP.put(ColumnType.INT, FieldTypes.INTEGER);</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>193</v>
+      </c>
+      <c r="B14" t="s">
+        <v>145</v>
+      </c>
+      <c r="C14" t="str">
+        <f t="shared" si="0"/>
+        <v>COLUMN_TYPE_FIELD_TYPES_MAP.put(ColumnType.INT_IDENTITY, FieldTypes.INTEGER);</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>194</v>
+      </c>
+      <c r="B15" t="s">
+        <v>145</v>
+      </c>
+      <c r="C15" t="str">
+        <f t="shared" si="0"/>
+        <v>COLUMN_TYPE_FIELD_TYPES_MAP.put(ColumnType.INT2, FieldTypes.INTEGER);</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>195</v>
+      </c>
+      <c r="B16" t="s">
+        <v>145</v>
+      </c>
+      <c r="C16" t="str">
+        <f t="shared" si="0"/>
+        <v>COLUMN_TYPE_FIELD_TYPES_MAP.put(ColumnType.INT4, FieldTypes.INTEGER);</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>196</v>
+      </c>
+      <c r="B17" t="s">
+        <v>147</v>
+      </c>
+      <c r="C17" t="str">
+        <f t="shared" si="0"/>
+        <v>COLUMN_TYPE_FIELD_TYPES_MAP.put(ColumnType.INT8, FieldTypes.LONG);</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>197</v>
+      </c>
+      <c r="B18" t="s">
+        <v>159</v>
+      </c>
+      <c r="C18" t="str">
+        <f t="shared" si="0"/>
+        <v>COLUMN_TYPE_FIELD_TYPES_MAP.put(ColumnType.JSONB, FieldTypes.BLOB);</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>198</v>
+      </c>
+      <c r="C19" t="str">
+        <f t="shared" si="0"/>
+        <v>COLUMN_TYPE_FIELD_TYPES_MAP.put(ColumnType.NUMBER, FieldTypes.);</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>199</v>
+      </c>
+      <c r="C20" t="str">
+        <f t="shared" si="0"/>
+        <v>COLUMN_TYPE_FIELD_TYPES_MAP.put(ColumnType.NUMERIC, FieldTypes.);</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>200</v>
+      </c>
+      <c r="B21" t="s">
+        <v>143</v>
+      </c>
+      <c r="C21" t="str">
+        <f t="shared" si="0"/>
+        <v>COLUMN_TYPE_FIELD_TYPES_MAP.put(ColumnType.NVARCHAR, FieldTypes.STRING);</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>201</v>
+      </c>
+      <c r="B22" t="s">
+        <v>145</v>
+      </c>
+      <c r="C22" t="str">
+        <f t="shared" si="0"/>
+        <v>COLUMN_TYPE_FIELD_TYPES_MAP.put(ColumnType.SERIAL, FieldTypes.INTEGER);</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>202</v>
+      </c>
+      <c r="B23" t="s">
+        <v>145</v>
+      </c>
+      <c r="C23" t="str">
+        <f t="shared" si="0"/>
+        <v>COLUMN_TYPE_FIELD_TYPES_MAP.put(ColumnType.SMALLINT, FieldTypes.INTEGER);</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>203</v>
+      </c>
+      <c r="B24" t="s">
+        <v>163</v>
+      </c>
+      <c r="C24" t="str">
+        <f t="shared" si="0"/>
+        <v>COLUMN_TYPE_FIELD_TYPES_MAP.put(ColumnType.TEXT, FieldTypes.TEXTBLOB);</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>204</v>
+      </c>
+      <c r="B25" t="s">
+        <v>157</v>
+      </c>
+      <c r="C25" t="str">
+        <f t="shared" si="0"/>
+        <v>COLUMN_TYPE_FIELD_TYPES_MAP.put(ColumnType.TIME, FieldTypes.DURATION);</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>205</v>
+      </c>
+      <c r="B26" t="s">
+        <v>164</v>
+      </c>
+      <c r="C26" t="str">
+        <f t="shared" si="0"/>
+        <v>COLUMN_TYPE_FIELD_TYPES_MAP.put(ColumnType.TIMESTAMP, FieldTypes.INSTANT);</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>206</v>
+      </c>
+      <c r="B27" t="s">
+        <v>164</v>
+      </c>
+      <c r="C27" t="str">
+        <f t="shared" si="0"/>
+        <v>COLUMN_TYPE_FIELD_TYPES_MAP.put(ColumnType.TIMESTAMPTZ, FieldTypes.INSTANT);</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>158</v>
+      </c>
+      <c r="B28" t="s">
+        <v>158</v>
+      </c>
+      <c r="C28" t="str">
+        <f t="shared" si="0"/>
+        <v>COLUMN_TYPE_FIELD_TYPES_MAP.put(ColumnType.UUID, FieldTypes.UUID);</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>207</v>
+      </c>
+      <c r="B29" t="s">
+        <v>143</v>
+      </c>
+      <c r="C29" t="str">
+        <f t="shared" si="0"/>
+        <v>COLUMN_TYPE_FIELD_TYPES_MAP.put(ColumnType.VARCHAR, FieldTypes.STRING);</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>208</v>
+      </c>
+      <c r="B30" t="s">
+        <v>143</v>
+      </c>
+      <c r="C30" t="str">
+        <f t="shared" si="0"/>
+        <v>COLUMN_TYPE_FIELD_TYPES_MAP.put(ColumnType.VARCHAR2, FieldTypes.STRING);</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FFC33ABA-8443-497A-BB54-48FC6DB52EF8}">
+  <dimension ref="A1:B14"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A9" sqref="A9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="100.7109375" style="2" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="3" t="s">
+        <v>149</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A6" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" s="3" t="s">
+        <v>164</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+      <c r="A9" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" s="3" t="s">
+        <v>158</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A13" s="3" t="s">
+        <v>177</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+      <c r="A14" s="3" t="s">
+        <v>159</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>179</v>
       </c>
     </row>
   </sheetData>

--- a/valores.xlsx
+++ b/valores.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ingma\Documents\GitHub\tcc_II\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52CD8F8E-1851-415D-B17C-81ADC2F1C9E9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{236048FC-E69F-4F13-B063-45D3A99516BA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="20370" yWindow="-120" windowWidth="24240" windowHeight="13740" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="20370" yWindow="-120" windowWidth="24240" windowHeight="13740" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
@@ -1107,7 +1107,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>13</v>
       </c>
@@ -1189,7 +1189,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>13</v>
       </c>
@@ -1312,7 +1312,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>13</v>
       </c>
@@ -1353,7 +1353,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>13</v>
       </c>
@@ -1476,7 +1476,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="12" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>13</v>
       </c>
@@ -1517,7 +1517,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="13" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>13</v>
       </c>
@@ -1599,7 +1599,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>13</v>
       </c>
@@ -1681,7 +1681,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>13</v>
       </c>
@@ -1722,7 +1722,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="18" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>13</v>
       </c>
@@ -1845,7 +1845,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>13</v>
       </c>
@@ -1886,7 +1886,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>13</v>
       </c>
@@ -1927,7 +1927,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>13</v>
       </c>
@@ -1968,7 +1968,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>13</v>
       </c>
@@ -2050,7 +2050,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>13</v>
       </c>
@@ -2255,7 +2255,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>13</v>
       </c>
@@ -2419,7 +2419,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="35" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>53</v>
       </c>
@@ -2460,7 +2460,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="36" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>53</v>
       </c>
@@ -2542,7 +2542,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="38" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>53</v>
       </c>
@@ -2747,7 +2747,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="43" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>53</v>
       </c>
@@ -3034,7 +3034,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="50" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>53</v>
       </c>
@@ -3116,7 +3116,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="52" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>53</v>
       </c>
@@ -3198,7 +3198,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="54" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>53</v>
       </c>
@@ -3280,7 +3280,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="56" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>53</v>
       </c>
@@ -3485,7 +3485,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="61" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>53</v>
       </c>
@@ -3567,7 +3567,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="63" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>53</v>
       </c>
@@ -3608,7 +3608,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="64" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>53</v>
       </c>
@@ -3772,7 +3772,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="68" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>53</v>
       </c>
@@ -3813,7 +3813,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="69" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>53</v>
       </c>
@@ -3977,7 +3977,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="73" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>90</v>
       </c>
@@ -4223,7 +4223,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="79" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>90</v>
       </c>
@@ -4305,7 +4305,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="81" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>90</v>
       </c>
@@ -4469,7 +4469,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="85" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>90</v>
       </c>
@@ -4592,7 +4592,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="88" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>90</v>
       </c>
@@ -4674,7 +4674,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="90" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>90</v>
       </c>
@@ -4715,7 +4715,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="91" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>90</v>
       </c>
@@ -4797,7 +4797,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="93" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>90</v>
       </c>
@@ -4920,7 +4920,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="96" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>90</v>
       </c>
@@ -4961,7 +4961,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="97" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>90</v>
       </c>
@@ -5002,7 +5002,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="98" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>90</v>
       </c>
@@ -5088,8 +5088,7 @@
   <autoFilter ref="A1:M99" xr:uid="{00000000-0009-0000-0000-000000000000}">
     <filterColumn colId="4">
       <filters>
-        <filter val="text"/>
-        <filter val="varchar"/>
+        <filter val="numeric"/>
       </filters>
     </filterColumn>
   </autoFilter>
@@ -6134,8 +6133,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{23D9075E-4AE1-43DE-9BD1-4482CE60EE6A}">
   <dimension ref="A1:C30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A19" sqref="A19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6509,7 +6508,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FFC33ABA-8443-497A-BB54-48FC6DB52EF8}">
   <dimension ref="A1:B14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
